--- a/Prolific Data/ProlificData.xlsx
+++ b/Prolific Data/ProlificData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b05dce26d807dff3/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jojo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="8_{EAC76CC6-9AC7-4470-8C9C-86DE7A6DC5C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2D9F2829-F509-45B5-8737-F81BABDE1B13}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F6F9F7-3A1F-4203-98D5-BB0EFD7D7E02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8820521B-C501-4718-B026-3D64C0EFE71C}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="220">
   <si>
     <t>PID</t>
   </si>
@@ -388,6 +390,309 @@
   </si>
   <si>
     <t>5d3cbeefbaf11000011eda109</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d7</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d8</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d9</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d10</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d11</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d12</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d13</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d14</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d15</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d16</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d17</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d18</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d19</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d20</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d21</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d22</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d23</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d24</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d25</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d26</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d27</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d28</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d29</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d30</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d31</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d32</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d33</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d34</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d35</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d36</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d37</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d38</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d39</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d40</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d41</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d42</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d43</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d44</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d45</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d46</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d47</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d48</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d49</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d50</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d51</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d52</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d53</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d54</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d55</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d56</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d57</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d58</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d59</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d60</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d61</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d62</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d63</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d64</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d65</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d66</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d67</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d68</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d69</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d70</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d71</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d72</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d73</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d74</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d75</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d76</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d77</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d78</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d79</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d80</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d81</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d82</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d83</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d84</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d85</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d86</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d87</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d88</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d89</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d90</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d91</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d92</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d93</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d94</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d95</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d96</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d97</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d98</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d99</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d100</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d101</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d102</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d103</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d104</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d105</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d106</t>
+  </si>
+  <si>
+    <t>5d847ac9be4b0b00188463d107</t>
   </si>
 </sst>
 </file>
@@ -749,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1DA691-A31D-4FE4-917C-F0614EF59D2D}">
-  <dimension ref="A1:N308"/>
+  <dimension ref="A1:N410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" zoomScale="87" workbookViewId="0">
-      <selection activeCell="A207" sqref="A207:C258"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="A396" sqref="A396:C410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,6 +1065,10 @@
     <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" customWidth="1"/>
+    <col min="11" max="11" width="19.5546875" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" customWidth="1"/>
+    <col min="13" max="13" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -6885,10 +7194,6 @@
       <c r="L216" s="1">
         <v>0.05</v>
       </c>
-      <c r="M216">
-        <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
@@ -7392,10 +7697,6 @@
       <c r="L235" s="1">
         <v>0.04</v>
       </c>
-      <c r="M235">
-        <f t="shared" si="3"/>
-        <v>0.04</v>
-      </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
@@ -8032,10 +8333,6 @@
       <c r="L260" s="1">
         <v>0.01</v>
       </c>
-      <c r="M260">
-        <f t="shared" si="3"/>
-        <v>0.01</v>
-      </c>
       <c r="N260" t="s">
         <v>18</v>
       </c>
@@ -8063,7 +8360,7 @@
         <v>0.01</v>
       </c>
       <c r="M261">
-        <f t="shared" ref="M261:M308" si="4">IF(I261=1,K261,L261)</f>
+        <f t="shared" ref="M261:M324" si="4">IF(I261=1,K261,L261)</f>
         <v>0.01</v>
       </c>
       <c r="N261" t="s">
@@ -8356,10 +8653,6 @@
       <c r="L271" s="1">
         <v>0.04</v>
       </c>
-      <c r="M271">
-        <f t="shared" si="4"/>
-        <v>0.04</v>
-      </c>
       <c r="N271" t="s">
         <v>18</v>
       </c>
@@ -8380,10 +8673,6 @@
       <c r="L272" s="1">
         <v>0.02</v>
       </c>
-      <c r="M272">
-        <f t="shared" si="4"/>
-        <v>0.02</v>
-      </c>
       <c r="N272" t="s">
         <v>18</v>
       </c>
@@ -8584,10 +8873,6 @@
       <c r="L279" s="1">
         <v>0.05</v>
       </c>
-      <c r="M279">
-        <f t="shared" si="4"/>
-        <v>0.05</v>
-      </c>
       <c r="N279" t="s">
         <v>18</v>
       </c>
@@ -9460,6 +9745,2903 @@
       </c>
       <c r="N308" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>119</v>
+      </c>
+      <c r="B310">
+        <v>1</v>
+      </c>
+      <c r="C310">
+        <v>22</v>
+      </c>
+      <c r="F310" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G310" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I310">
+        <v>2</v>
+      </c>
+      <c r="J310">
+        <v>1</v>
+      </c>
+      <c r="K310" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L310" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="M310">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>120</v>
+      </c>
+      <c r="B311">
+        <v>1</v>
+      </c>
+      <c r="C311">
+        <v>22</v>
+      </c>
+      <c r="D311">
+        <v>2</v>
+      </c>
+      <c r="E311">
+        <v>0</v>
+      </c>
+      <c r="F311" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G311" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="H311">
+        <v>0.02</v>
+      </c>
+      <c r="I311">
+        <v>2</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+      <c r="K311" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L311" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="M311">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>121</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+      <c r="C312">
+        <v>22</v>
+      </c>
+      <c r="D312">
+        <v>1</v>
+      </c>
+      <c r="E312">
+        <v>1</v>
+      </c>
+      <c r="F312" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G312" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H312">
+        <v>0.01</v>
+      </c>
+      <c r="I312">
+        <v>2</v>
+      </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
+      <c r="K312" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L312" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="M312">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>122</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+      <c r="C313">
+        <v>22</v>
+      </c>
+      <c r="I313">
+        <v>2</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="K313" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="L313" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="M313">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>123</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+      <c r="C314">
+        <v>22</v>
+      </c>
+      <c r="I314">
+        <v>2</v>
+      </c>
+      <c r="J314">
+        <v>0</v>
+      </c>
+      <c r="K314" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L314" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M314">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>124</v>
+      </c>
+      <c r="B315">
+        <v>1</v>
+      </c>
+      <c r="C315">
+        <v>22</v>
+      </c>
+      <c r="I315">
+        <v>1</v>
+      </c>
+      <c r="J315">
+        <v>0</v>
+      </c>
+      <c r="K315" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L315" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="M315">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>125</v>
+      </c>
+      <c r="B316">
+        <v>1</v>
+      </c>
+      <c r="C316">
+        <v>22</v>
+      </c>
+      <c r="I316">
+        <v>2</v>
+      </c>
+      <c r="J316">
+        <v>0</v>
+      </c>
+      <c r="K316" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="L316" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M316">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>126</v>
+      </c>
+      <c r="B317">
+        <v>1</v>
+      </c>
+      <c r="C317">
+        <v>22</v>
+      </c>
+      <c r="I317">
+        <v>1</v>
+      </c>
+      <c r="J317">
+        <v>0</v>
+      </c>
+      <c r="K317" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L317" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M317">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>127</v>
+      </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
+      <c r="C318">
+        <v>22</v>
+      </c>
+      <c r="I318">
+        <v>1</v>
+      </c>
+      <c r="J318">
+        <v>0</v>
+      </c>
+      <c r="K318" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L318" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M318">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>128</v>
+      </c>
+      <c r="B319">
+        <v>1</v>
+      </c>
+      <c r="C319">
+        <v>22</v>
+      </c>
+      <c r="I319">
+        <v>1</v>
+      </c>
+      <c r="J319">
+        <v>0</v>
+      </c>
+      <c r="K319" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L319" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="M319">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>129</v>
+      </c>
+      <c r="B320">
+        <v>1</v>
+      </c>
+      <c r="C320">
+        <v>22</v>
+      </c>
+      <c r="I320">
+        <v>1</v>
+      </c>
+      <c r="J320">
+        <v>0</v>
+      </c>
+      <c r="K320" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="L320" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="M320">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>130</v>
+      </c>
+      <c r="B321">
+        <v>1</v>
+      </c>
+      <c r="C321">
+        <v>22</v>
+      </c>
+      <c r="I321">
+        <v>1</v>
+      </c>
+      <c r="J321">
+        <v>0</v>
+      </c>
+      <c r="K321" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="L321" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M321">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>131</v>
+      </c>
+      <c r="B322">
+        <v>1</v>
+      </c>
+      <c r="C322">
+        <v>22</v>
+      </c>
+      <c r="I322">
+        <v>2</v>
+      </c>
+      <c r="J322">
+        <v>1</v>
+      </c>
+      <c r="K322" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L322" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M322">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>132</v>
+      </c>
+      <c r="B323">
+        <v>1</v>
+      </c>
+      <c r="C323">
+        <v>22</v>
+      </c>
+      <c r="I323">
+        <v>2</v>
+      </c>
+      <c r="J323">
+        <v>0</v>
+      </c>
+      <c r="K323" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="L323" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="M323">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>133</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="C324">
+        <v>22</v>
+      </c>
+      <c r="I324">
+        <v>1</v>
+      </c>
+      <c r="J324">
+        <v>1</v>
+      </c>
+      <c r="K324" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="L324" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M324">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>134</v>
+      </c>
+      <c r="B325">
+        <v>1</v>
+      </c>
+      <c r="C325">
+        <v>22</v>
+      </c>
+      <c r="I325">
+        <v>2</v>
+      </c>
+      <c r="J325">
+        <v>0</v>
+      </c>
+      <c r="K325" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="L325" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="M325">
+        <f t="shared" ref="M325:M388" si="5">IF(I325=1,K325,L325)</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>135</v>
+      </c>
+      <c r="B326">
+        <v>1</v>
+      </c>
+      <c r="C326">
+        <v>22</v>
+      </c>
+      <c r="I326">
+        <v>1</v>
+      </c>
+      <c r="J326">
+        <v>0</v>
+      </c>
+      <c r="K326" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L326" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="M326">
+        <f t="shared" si="5"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>136</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+      <c r="C327">
+        <v>22</v>
+      </c>
+      <c r="I327">
+        <v>2</v>
+      </c>
+      <c r="J327">
+        <v>1</v>
+      </c>
+      <c r="K327" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="L327" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="M327">
+        <f t="shared" si="5"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>137</v>
+      </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
+      <c r="C328">
+        <v>22</v>
+      </c>
+      <c r="I328">
+        <v>2</v>
+      </c>
+      <c r="J328">
+        <v>1</v>
+      </c>
+      <c r="K328" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L328" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M328">
+        <f t="shared" si="5"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>138</v>
+      </c>
+      <c r="B329">
+        <v>1</v>
+      </c>
+      <c r="C329">
+        <v>22</v>
+      </c>
+      <c r="I329">
+        <v>1</v>
+      </c>
+      <c r="J329">
+        <v>1</v>
+      </c>
+      <c r="K329" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="L329" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="M329">
+        <f t="shared" si="5"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>139</v>
+      </c>
+      <c r="B330">
+        <v>1</v>
+      </c>
+      <c r="C330">
+        <v>22</v>
+      </c>
+      <c r="I330">
+        <v>2</v>
+      </c>
+      <c r="J330">
+        <v>0</v>
+      </c>
+      <c r="K330" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L330" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="M330">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>140</v>
+      </c>
+      <c r="B331">
+        <v>1</v>
+      </c>
+      <c r="C331">
+        <v>22</v>
+      </c>
+      <c r="I331">
+        <v>2</v>
+      </c>
+      <c r="J331">
+        <v>0</v>
+      </c>
+      <c r="K331" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L331" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="M331">
+        <f t="shared" si="5"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>141</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+      <c r="C332">
+        <v>22</v>
+      </c>
+      <c r="I332">
+        <v>1</v>
+      </c>
+      <c r="J332">
+        <v>0</v>
+      </c>
+      <c r="K332" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="L332" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M332">
+        <f t="shared" si="5"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>142</v>
+      </c>
+      <c r="B333">
+        <v>1</v>
+      </c>
+      <c r="C333">
+        <v>22</v>
+      </c>
+      <c r="I333">
+        <v>2</v>
+      </c>
+      <c r="J333">
+        <v>0</v>
+      </c>
+      <c r="K333" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="L333" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="M333">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>143</v>
+      </c>
+      <c r="B334">
+        <v>1</v>
+      </c>
+      <c r="C334">
+        <v>22</v>
+      </c>
+      <c r="I334">
+        <v>2</v>
+      </c>
+      <c r="J334">
+        <v>0</v>
+      </c>
+      <c r="K334" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L334" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="M334">
+        <f t="shared" si="5"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>144</v>
+      </c>
+      <c r="B335">
+        <v>1</v>
+      </c>
+      <c r="C335">
+        <v>22</v>
+      </c>
+      <c r="I335">
+        <v>1</v>
+      </c>
+      <c r="J335">
+        <v>0</v>
+      </c>
+      <c r="K335" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L335" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M335">
+        <f t="shared" si="5"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>145</v>
+      </c>
+      <c r="B336">
+        <v>1</v>
+      </c>
+      <c r="C336">
+        <v>22</v>
+      </c>
+      <c r="I336">
+        <v>1</v>
+      </c>
+      <c r="J336">
+        <v>1</v>
+      </c>
+      <c r="K336" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="L336" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="M336">
+        <f t="shared" si="5"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>146</v>
+      </c>
+      <c r="B337">
+        <v>1</v>
+      </c>
+      <c r="C337">
+        <v>22</v>
+      </c>
+      <c r="I337">
+        <v>1</v>
+      </c>
+      <c r="J337">
+        <v>0</v>
+      </c>
+      <c r="K337" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="L337" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M337">
+        <f t="shared" si="5"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>147</v>
+      </c>
+      <c r="B338">
+        <v>1</v>
+      </c>
+      <c r="C338">
+        <v>22</v>
+      </c>
+      <c r="I338">
+        <v>1</v>
+      </c>
+      <c r="J338">
+        <v>0</v>
+      </c>
+      <c r="K338" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L338" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="M338">
+        <f t="shared" si="5"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>148</v>
+      </c>
+      <c r="B339">
+        <v>1</v>
+      </c>
+      <c r="C339">
+        <v>22</v>
+      </c>
+      <c r="I339">
+        <v>1</v>
+      </c>
+      <c r="J339">
+        <v>0</v>
+      </c>
+      <c r="K339" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="L339" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="M339">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>149</v>
+      </c>
+      <c r="B340">
+        <v>1</v>
+      </c>
+      <c r="C340">
+        <v>22</v>
+      </c>
+      <c r="I340">
+        <v>1</v>
+      </c>
+      <c r="J340">
+        <v>0</v>
+      </c>
+      <c r="K340" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L340" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="M340">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>150</v>
+      </c>
+      <c r="B341">
+        <v>1</v>
+      </c>
+      <c r="C341">
+        <v>22</v>
+      </c>
+      <c r="I341">
+        <v>1</v>
+      </c>
+      <c r="J341">
+        <v>0</v>
+      </c>
+      <c r="K341" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="L341" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M341">
+        <f t="shared" si="5"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>151</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
+      <c r="C342">
+        <v>22</v>
+      </c>
+      <c r="I342">
+        <v>1</v>
+      </c>
+      <c r="J342">
+        <v>0</v>
+      </c>
+      <c r="K342" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="L342" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M342">
+        <f t="shared" si="5"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>152</v>
+      </c>
+      <c r="B343">
+        <v>1</v>
+      </c>
+      <c r="C343">
+        <v>22</v>
+      </c>
+      <c r="I343">
+        <v>1</v>
+      </c>
+      <c r="J343">
+        <v>1</v>
+      </c>
+      <c r="K343" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L343" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M343">
+        <f t="shared" si="5"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>153</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+      <c r="C344">
+        <v>22</v>
+      </c>
+      <c r="I344">
+        <v>1</v>
+      </c>
+      <c r="J344">
+        <v>0</v>
+      </c>
+      <c r="K344" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="L344" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M344">
+        <f t="shared" si="5"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>154</v>
+      </c>
+      <c r="B345">
+        <v>1</v>
+      </c>
+      <c r="C345">
+        <v>22</v>
+      </c>
+      <c r="I345">
+        <v>1</v>
+      </c>
+      <c r="J345">
+        <v>0</v>
+      </c>
+      <c r="K345" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L345" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M345">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>155</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+      <c r="C346">
+        <v>22</v>
+      </c>
+      <c r="I346">
+        <v>1</v>
+      </c>
+      <c r="J346">
+        <v>0</v>
+      </c>
+      <c r="K346" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="L346" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="M346">
+        <f t="shared" si="5"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>156</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+      <c r="C347">
+        <v>22</v>
+      </c>
+      <c r="I347">
+        <v>2</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="K347" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="L347" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="M347">
+        <f t="shared" si="5"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>157</v>
+      </c>
+      <c r="B348">
+        <v>1</v>
+      </c>
+      <c r="C348">
+        <v>22</v>
+      </c>
+      <c r="I348">
+        <v>2</v>
+      </c>
+      <c r="J348">
+        <v>0</v>
+      </c>
+      <c r="K348" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L348" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M348">
+        <f t="shared" si="5"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>158</v>
+      </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
+      <c r="C349">
+        <v>22</v>
+      </c>
+      <c r="I349">
+        <v>1</v>
+      </c>
+      <c r="J349">
+        <v>1</v>
+      </c>
+      <c r="K349" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="L349" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="M349">
+        <f t="shared" si="5"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>159</v>
+      </c>
+      <c r="B350">
+        <v>1</v>
+      </c>
+      <c r="C350">
+        <v>22</v>
+      </c>
+      <c r="I350">
+        <v>2</v>
+      </c>
+      <c r="J350">
+        <v>0</v>
+      </c>
+      <c r="K350" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="L350" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M350">
+        <f t="shared" si="5"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>160</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+      <c r="C351">
+        <v>22</v>
+      </c>
+      <c r="I351">
+        <v>1</v>
+      </c>
+      <c r="J351">
+        <v>1</v>
+      </c>
+      <c r="K351" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="L351" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M351">
+        <f t="shared" si="5"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>161</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+      <c r="C352">
+        <v>22</v>
+      </c>
+      <c r="I352">
+        <v>2</v>
+      </c>
+      <c r="J352">
+        <v>0</v>
+      </c>
+      <c r="K352" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L352" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="M352">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>162</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+      <c r="C353">
+        <v>22</v>
+      </c>
+      <c r="I353">
+        <v>2</v>
+      </c>
+      <c r="J353">
+        <v>0</v>
+      </c>
+      <c r="K353" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="L353" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="M353">
+        <f t="shared" si="5"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>163</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+      <c r="C354">
+        <v>22</v>
+      </c>
+      <c r="I354">
+        <v>1</v>
+      </c>
+      <c r="J354">
+        <v>0</v>
+      </c>
+      <c r="K354" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="L354" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="M354">
+        <f t="shared" si="5"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>164</v>
+      </c>
+      <c r="B355">
+        <v>1</v>
+      </c>
+      <c r="C355">
+        <v>22</v>
+      </c>
+      <c r="I355">
+        <v>1</v>
+      </c>
+      <c r="J355">
+        <v>0</v>
+      </c>
+      <c r="K355" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L355" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M355">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>165</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+      <c r="C356">
+        <v>22</v>
+      </c>
+      <c r="I356">
+        <v>2</v>
+      </c>
+      <c r="J356">
+        <v>0</v>
+      </c>
+      <c r="K356" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="L356" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="M356">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>166</v>
+      </c>
+      <c r="B357">
+        <v>1</v>
+      </c>
+      <c r="C357">
+        <v>22</v>
+      </c>
+      <c r="I357">
+        <v>1</v>
+      </c>
+      <c r="J357">
+        <v>0</v>
+      </c>
+      <c r="K357" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L357" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="M357">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>167</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+      <c r="C358">
+        <v>22</v>
+      </c>
+      <c r="I358">
+        <v>2</v>
+      </c>
+      <c r="J358">
+        <v>0</v>
+      </c>
+      <c r="K358" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="L358" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M358">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>168</v>
+      </c>
+      <c r="B359">
+        <v>1</v>
+      </c>
+      <c r="C359">
+        <v>22</v>
+      </c>
+      <c r="I359">
+        <v>2</v>
+      </c>
+      <c r="J359">
+        <v>0</v>
+      </c>
+      <c r="K359" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="L359" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M359">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>169</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+      <c r="C360">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>170</v>
+      </c>
+      <c r="B361">
+        <v>1</v>
+      </c>
+      <c r="C361">
+        <v>22</v>
+      </c>
+      <c r="I361">
+        <v>1</v>
+      </c>
+      <c r="J361">
+        <v>0</v>
+      </c>
+      <c r="K361" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L361" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="M361">
+        <f t="shared" si="5"/>
+        <v>0.02</v>
+      </c>
+      <c r="N361" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>171</v>
+      </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
+      <c r="C362">
+        <v>22</v>
+      </c>
+      <c r="I362">
+        <v>1</v>
+      </c>
+      <c r="J362">
+        <v>1</v>
+      </c>
+      <c r="K362" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="L362" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M362">
+        <f t="shared" si="5"/>
+        <v>0.04</v>
+      </c>
+      <c r="N362" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>172</v>
+      </c>
+      <c r="B363">
+        <v>1</v>
+      </c>
+      <c r="C363">
+        <v>22</v>
+      </c>
+      <c r="I363">
+        <v>2</v>
+      </c>
+      <c r="J363">
+        <v>0</v>
+      </c>
+      <c r="K363" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L363" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="M363">
+        <f t="shared" si="5"/>
+        <v>0.04</v>
+      </c>
+      <c r="N363" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>173</v>
+      </c>
+      <c r="B364">
+        <v>1</v>
+      </c>
+      <c r="C364">
+        <v>22</v>
+      </c>
+      <c r="I364">
+        <v>1</v>
+      </c>
+      <c r="J364">
+        <v>0</v>
+      </c>
+      <c r="K364" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="L364" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="M364">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="N364" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>174</v>
+      </c>
+      <c r="B365">
+        <v>1</v>
+      </c>
+      <c r="C365">
+        <v>22</v>
+      </c>
+      <c r="I365">
+        <v>1</v>
+      </c>
+      <c r="J365">
+        <v>0</v>
+      </c>
+      <c r="K365" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L365" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M365">
+        <f t="shared" si="5"/>
+        <v>0.02</v>
+      </c>
+      <c r="N365" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>175</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
+      <c r="C366">
+        <v>22</v>
+      </c>
+      <c r="I366">
+        <v>1</v>
+      </c>
+      <c r="J366">
+        <v>0</v>
+      </c>
+      <c r="K366" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="L366" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M366">
+        <f t="shared" si="5"/>
+        <v>0.05</v>
+      </c>
+      <c r="N366" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>176</v>
+      </c>
+      <c r="B367">
+        <v>1</v>
+      </c>
+      <c r="C367">
+        <v>22</v>
+      </c>
+      <c r="I367">
+        <v>1</v>
+      </c>
+      <c r="J367">
+        <v>0</v>
+      </c>
+      <c r="K367" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="L367" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M367">
+        <f t="shared" si="5"/>
+        <v>0.04</v>
+      </c>
+      <c r="N367" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>177</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+      <c r="C368">
+        <v>22</v>
+      </c>
+      <c r="I368">
+        <v>2</v>
+      </c>
+      <c r="J368">
+        <v>0</v>
+      </c>
+      <c r="K368" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="L368" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="M368">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="N368" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="369" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>178</v>
+      </c>
+      <c r="B369">
+        <v>1</v>
+      </c>
+      <c r="C369">
+        <v>22</v>
+      </c>
+      <c r="I369">
+        <v>1</v>
+      </c>
+      <c r="J369">
+        <v>0</v>
+      </c>
+      <c r="K369" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L369" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M369">
+        <f t="shared" si="5"/>
+        <v>0.02</v>
+      </c>
+      <c r="N369" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>179</v>
+      </c>
+      <c r="B370">
+        <v>1</v>
+      </c>
+      <c r="C370">
+        <v>22</v>
+      </c>
+      <c r="I370">
+        <v>2</v>
+      </c>
+      <c r="J370">
+        <v>0</v>
+      </c>
+      <c r="K370" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="L370" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M370">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+      <c r="N370" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="371" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>180</v>
+      </c>
+      <c r="B371">
+        <v>1</v>
+      </c>
+      <c r="C371">
+        <v>22</v>
+      </c>
+      <c r="I371">
+        <v>1</v>
+      </c>
+      <c r="J371">
+        <v>0</v>
+      </c>
+      <c r="K371" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="L371" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M371">
+        <f t="shared" si="5"/>
+        <v>0.05</v>
+      </c>
+      <c r="N371" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>181</v>
+      </c>
+      <c r="B372">
+        <v>1</v>
+      </c>
+      <c r="C372">
+        <v>22</v>
+      </c>
+      <c r="I372">
+        <v>2</v>
+      </c>
+      <c r="J372">
+        <v>0</v>
+      </c>
+      <c r="K372" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="L372" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="M372">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="N372" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>182</v>
+      </c>
+      <c r="B373">
+        <v>1</v>
+      </c>
+      <c r="C373">
+        <v>22</v>
+      </c>
+      <c r="I373">
+        <v>2</v>
+      </c>
+      <c r="J373">
+        <v>0</v>
+      </c>
+      <c r="K373" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="L373" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M373">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+      <c r="N373" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="374" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>183</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+      <c r="C374">
+        <v>22</v>
+      </c>
+      <c r="I374">
+        <v>1</v>
+      </c>
+      <c r="J374">
+        <v>0</v>
+      </c>
+      <c r="K374" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L374" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M374">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+      <c r="N374" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="375" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>184</v>
+      </c>
+      <c r="B375">
+        <v>1</v>
+      </c>
+      <c r="C375">
+        <v>22</v>
+      </c>
+      <c r="I375">
+        <v>1</v>
+      </c>
+      <c r="J375">
+        <v>0</v>
+      </c>
+      <c r="K375" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L375" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="M375">
+        <f t="shared" si="5"/>
+        <v>0.02</v>
+      </c>
+      <c r="N375" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="376" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>185</v>
+      </c>
+      <c r="B376">
+        <v>1</v>
+      </c>
+      <c r="C376">
+        <v>22</v>
+      </c>
+      <c r="I376">
+        <v>1</v>
+      </c>
+      <c r="J376">
+        <v>0</v>
+      </c>
+      <c r="K376" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L376" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M376">
+        <f t="shared" si="5"/>
+        <v>0.02</v>
+      </c>
+      <c r="N376" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="377" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>186</v>
+      </c>
+      <c r="B377">
+        <v>1</v>
+      </c>
+      <c r="C377">
+        <v>22</v>
+      </c>
+      <c r="I377">
+        <v>2</v>
+      </c>
+      <c r="J377">
+        <v>0</v>
+      </c>
+      <c r="K377" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L377" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M377">
+        <f t="shared" si="5"/>
+        <v>0.05</v>
+      </c>
+      <c r="N377" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="378" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>187</v>
+      </c>
+      <c r="B378">
+        <v>1</v>
+      </c>
+      <c r="C378">
+        <v>22</v>
+      </c>
+      <c r="I378">
+        <v>1</v>
+      </c>
+      <c r="J378">
+        <v>0</v>
+      </c>
+      <c r="K378" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L378" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M378">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+      <c r="N378" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="379" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>188</v>
+      </c>
+      <c r="B379">
+        <v>1</v>
+      </c>
+      <c r="C379">
+        <v>22</v>
+      </c>
+      <c r="I379">
+        <v>1</v>
+      </c>
+      <c r="J379">
+        <v>0</v>
+      </c>
+      <c r="K379" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L379" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="M379">
+        <f t="shared" si="5"/>
+        <v>0.02</v>
+      </c>
+      <c r="N379" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="380" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>189</v>
+      </c>
+      <c r="B380">
+        <v>1</v>
+      </c>
+      <c r="C380">
+        <v>22</v>
+      </c>
+      <c r="I380">
+        <v>1</v>
+      </c>
+      <c r="J380">
+        <v>1</v>
+      </c>
+      <c r="K380" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="L380" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M380">
+        <f t="shared" si="5"/>
+        <v>0.05</v>
+      </c>
+      <c r="N380" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="381" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>190</v>
+      </c>
+      <c r="B381">
+        <v>1</v>
+      </c>
+      <c r="C381">
+        <v>22</v>
+      </c>
+      <c r="I381">
+        <v>2</v>
+      </c>
+      <c r="J381">
+        <v>0</v>
+      </c>
+      <c r="K381" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L381" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="M381">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="N381" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="382" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>191</v>
+      </c>
+      <c r="B382">
+        <v>1</v>
+      </c>
+      <c r="C382">
+        <v>22</v>
+      </c>
+      <c r="I382">
+        <v>2</v>
+      </c>
+      <c r="J382">
+        <v>0</v>
+      </c>
+      <c r="K382" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="L382" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="M382">
+        <f t="shared" si="5"/>
+        <v>0.02</v>
+      </c>
+      <c r="N382" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="383" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>192</v>
+      </c>
+      <c r="B383">
+        <v>1</v>
+      </c>
+      <c r="C383">
+        <v>22</v>
+      </c>
+      <c r="I383">
+        <v>2</v>
+      </c>
+      <c r="J383">
+        <v>0</v>
+      </c>
+      <c r="K383" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="L383" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="M383">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="N383" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="384" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>193</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+      <c r="C384">
+        <v>22</v>
+      </c>
+      <c r="I384">
+        <v>2</v>
+      </c>
+      <c r="J384">
+        <v>0</v>
+      </c>
+      <c r="K384" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="L384" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="M384">
+        <f t="shared" si="5"/>
+        <v>0.02</v>
+      </c>
+      <c r="N384" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>194</v>
+      </c>
+      <c r="B385">
+        <v>1</v>
+      </c>
+      <c r="C385">
+        <v>22</v>
+      </c>
+      <c r="I385">
+        <v>1</v>
+      </c>
+      <c r="J385">
+        <v>0</v>
+      </c>
+      <c r="K385" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L385" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="M385">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+      <c r="N385" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="386" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>195</v>
+      </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
+      <c r="C386">
+        <v>22</v>
+      </c>
+      <c r="I386">
+        <v>2</v>
+      </c>
+      <c r="J386">
+        <v>1</v>
+      </c>
+      <c r="K386" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L386" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M386">
+        <f t="shared" si="5"/>
+        <v>0.05</v>
+      </c>
+      <c r="N386" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="387" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>196</v>
+      </c>
+      <c r="B387">
+        <v>1</v>
+      </c>
+      <c r="C387">
+        <v>22</v>
+      </c>
+      <c r="I387">
+        <v>1</v>
+      </c>
+      <c r="J387">
+        <v>1</v>
+      </c>
+      <c r="K387" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L387" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M387">
+        <f t="shared" si="5"/>
+        <v>0.02</v>
+      </c>
+      <c r="N387" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>197</v>
+      </c>
+      <c r="B388">
+        <v>1</v>
+      </c>
+      <c r="C388">
+        <v>22</v>
+      </c>
+      <c r="I388">
+        <v>2</v>
+      </c>
+      <c r="J388">
+        <v>0</v>
+      </c>
+      <c r="K388" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L388" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="M388">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="N388" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="389" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>198</v>
+      </c>
+      <c r="B389">
+        <v>1</v>
+      </c>
+      <c r="C389">
+        <v>22</v>
+      </c>
+      <c r="I389">
+        <v>2</v>
+      </c>
+      <c r="J389">
+        <v>0</v>
+      </c>
+      <c r="K389" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="L389" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="M389">
+        <f t="shared" ref="M389:M410" si="6">IF(I389=1,K389,L389)</f>
+        <v>0.02</v>
+      </c>
+      <c r="N389" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="390" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>199</v>
+      </c>
+      <c r="B390">
+        <v>1</v>
+      </c>
+      <c r="C390">
+        <v>22</v>
+      </c>
+      <c r="I390">
+        <v>1</v>
+      </c>
+      <c r="J390">
+        <v>1</v>
+      </c>
+      <c r="K390" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="L390" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="M390">
+        <f t="shared" si="6"/>
+        <v>0.04</v>
+      </c>
+      <c r="N390" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>200</v>
+      </c>
+      <c r="B391">
+        <v>1</v>
+      </c>
+      <c r="C391">
+        <v>22</v>
+      </c>
+      <c r="I391">
+        <v>2</v>
+      </c>
+      <c r="J391">
+        <v>0</v>
+      </c>
+      <c r="K391" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="L391" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="M391">
+        <f t="shared" si="6"/>
+        <v>0.03</v>
+      </c>
+      <c r="N391" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="392" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>201</v>
+      </c>
+      <c r="B392">
+        <v>1</v>
+      </c>
+      <c r="C392">
+        <v>22</v>
+      </c>
+      <c r="I392">
+        <v>1</v>
+      </c>
+      <c r="J392">
+        <v>0</v>
+      </c>
+      <c r="K392" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="L392" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="M392">
+        <f t="shared" si="6"/>
+        <v>0.03</v>
+      </c>
+      <c r="N392" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="393" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>202</v>
+      </c>
+      <c r="B393">
+        <v>1</v>
+      </c>
+      <c r="C393">
+        <v>22</v>
+      </c>
+      <c r="I393">
+        <v>2</v>
+      </c>
+      <c r="J393">
+        <v>0</v>
+      </c>
+      <c r="K393" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L393" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="M393">
+        <f t="shared" si="6"/>
+        <v>0.03</v>
+      </c>
+      <c r="N393" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="394" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>203</v>
+      </c>
+      <c r="B394">
+        <v>1</v>
+      </c>
+      <c r="C394">
+        <v>22</v>
+      </c>
+      <c r="I394">
+        <v>2</v>
+      </c>
+      <c r="J394">
+        <v>0</v>
+      </c>
+      <c r="K394" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L394" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M394">
+        <f t="shared" si="6"/>
+        <v>0.05</v>
+      </c>
+      <c r="N394" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="395" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>204</v>
+      </c>
+      <c r="B395">
+        <v>1</v>
+      </c>
+      <c r="C395">
+        <v>22</v>
+      </c>
+      <c r="I395">
+        <v>1</v>
+      </c>
+      <c r="J395">
+        <v>0</v>
+      </c>
+      <c r="K395" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="L395" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M395">
+        <f t="shared" si="6"/>
+        <v>0.03</v>
+      </c>
+      <c r="N395" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="396" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>205</v>
+      </c>
+      <c r="B396">
+        <v>1</v>
+      </c>
+      <c r="C396">
+        <v>22</v>
+      </c>
+      <c r="I396">
+        <v>2</v>
+      </c>
+      <c r="J396">
+        <v>0</v>
+      </c>
+      <c r="K396" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="L396" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="M396">
+        <f t="shared" si="6"/>
+        <v>0.03</v>
+      </c>
+      <c r="N396" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="397" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>206</v>
+      </c>
+      <c r="B397">
+        <v>1</v>
+      </c>
+      <c r="C397">
+        <v>22</v>
+      </c>
+      <c r="I397">
+        <v>2</v>
+      </c>
+      <c r="J397">
+        <v>0</v>
+      </c>
+      <c r="K397" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="L397" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M397">
+        <f t="shared" si="6"/>
+        <v>0.05</v>
+      </c>
+      <c r="N397" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="398" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>207</v>
+      </c>
+      <c r="B398">
+        <v>1</v>
+      </c>
+      <c r="C398">
+        <v>22</v>
+      </c>
+      <c r="I398">
+        <v>2</v>
+      </c>
+      <c r="J398">
+        <v>0</v>
+      </c>
+      <c r="K398" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L398" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="M398">
+        <f t="shared" si="6"/>
+        <v>0.04</v>
+      </c>
+      <c r="N398" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="399" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>208</v>
+      </c>
+      <c r="B399">
+        <v>1</v>
+      </c>
+      <c r="C399">
+        <v>22</v>
+      </c>
+      <c r="I399">
+        <v>1</v>
+      </c>
+      <c r="J399">
+        <v>0</v>
+      </c>
+      <c r="K399" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="L399" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="M399">
+        <f t="shared" si="6"/>
+        <v>0.04</v>
+      </c>
+      <c r="N399" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="400" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>209</v>
+      </c>
+      <c r="B400">
+        <v>1</v>
+      </c>
+      <c r="C400">
+        <v>22</v>
+      </c>
+      <c r="I400">
+        <v>1</v>
+      </c>
+      <c r="J400">
+        <v>0</v>
+      </c>
+      <c r="K400" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="L400" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="M400">
+        <f t="shared" si="6"/>
+        <v>0.05</v>
+      </c>
+      <c r="N400" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="401" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>210</v>
+      </c>
+      <c r="B401">
+        <v>1</v>
+      </c>
+      <c r="C401">
+        <v>22</v>
+      </c>
+      <c r="I401">
+        <v>1</v>
+      </c>
+      <c r="J401">
+        <v>0</v>
+      </c>
+      <c r="K401" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L401" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="M401">
+        <f t="shared" si="6"/>
+        <v>0.02</v>
+      </c>
+      <c r="N401" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="402" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>211</v>
+      </c>
+      <c r="B402">
+        <v>1</v>
+      </c>
+      <c r="C402">
+        <v>22</v>
+      </c>
+      <c r="I402">
+        <v>1</v>
+      </c>
+      <c r="J402">
+        <v>0</v>
+      </c>
+      <c r="K402" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="L402" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M402">
+        <f t="shared" si="6"/>
+        <v>0.04</v>
+      </c>
+      <c r="N402" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="403" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>212</v>
+      </c>
+      <c r="B403">
+        <v>1</v>
+      </c>
+      <c r="C403">
+        <v>22</v>
+      </c>
+      <c r="I403">
+        <v>2</v>
+      </c>
+      <c r="J403">
+        <v>1</v>
+      </c>
+      <c r="K403" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L403" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="M403">
+        <f t="shared" si="6"/>
+        <v>0.04</v>
+      </c>
+      <c r="N403" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="404" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>213</v>
+      </c>
+      <c r="B404">
+        <v>1</v>
+      </c>
+      <c r="C404">
+        <v>22</v>
+      </c>
+      <c r="I404">
+        <v>2</v>
+      </c>
+      <c r="J404">
+        <v>0</v>
+      </c>
+      <c r="K404" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L404" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="M404">
+        <f t="shared" si="6"/>
+        <v>0.02</v>
+      </c>
+      <c r="N404" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="405" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>214</v>
+      </c>
+      <c r="B405">
+        <v>1</v>
+      </c>
+      <c r="C405">
+        <v>22</v>
+      </c>
+      <c r="I405">
+        <v>1</v>
+      </c>
+      <c r="J405">
+        <v>0</v>
+      </c>
+      <c r="K405" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="L405" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M405">
+        <f t="shared" si="6"/>
+        <v>0.04</v>
+      </c>
+      <c r="N405" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="406" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>215</v>
+      </c>
+      <c r="B406">
+        <v>1</v>
+      </c>
+      <c r="C406">
+        <v>22</v>
+      </c>
+      <c r="I406">
+        <v>1</v>
+      </c>
+      <c r="J406">
+        <v>1</v>
+      </c>
+      <c r="K406" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="L406" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="M406">
+        <f t="shared" si="6"/>
+        <v>0.04</v>
+      </c>
+      <c r="N406" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="407" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>216</v>
+      </c>
+      <c r="B407">
+        <v>1</v>
+      </c>
+      <c r="C407">
+        <v>22</v>
+      </c>
+      <c r="I407">
+        <v>1</v>
+      </c>
+      <c r="J407">
+        <v>0</v>
+      </c>
+      <c r="K407" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L407" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="M407">
+        <f t="shared" si="6"/>
+        <v>0.01</v>
+      </c>
+      <c r="N407" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="408" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>217</v>
+      </c>
+      <c r="B408">
+        <v>1</v>
+      </c>
+      <c r="C408">
+        <v>22</v>
+      </c>
+      <c r="I408">
+        <v>1</v>
+      </c>
+      <c r="J408">
+        <v>0</v>
+      </c>
+      <c r="K408" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L408" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M408">
+        <f t="shared" si="6"/>
+        <v>0.01</v>
+      </c>
+      <c r="N408" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="409" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>218</v>
+      </c>
+      <c r="B409">
+        <v>1</v>
+      </c>
+      <c r="C409">
+        <v>22</v>
+      </c>
+      <c r="I409">
+        <v>1</v>
+      </c>
+      <c r="J409">
+        <v>0</v>
+      </c>
+      <c r="K409" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="L409" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="M409">
+        <f t="shared" si="6"/>
+        <v>0.05</v>
+      </c>
+      <c r="N409" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="410" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>219</v>
+      </c>
+      <c r="B410">
+        <v>1</v>
+      </c>
+      <c r="C410">
+        <v>22</v>
+      </c>
+      <c r="I410">
+        <v>2</v>
+      </c>
+      <c r="J410">
+        <v>0</v>
+      </c>
+      <c r="K410" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="L410" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M410">
+        <f t="shared" si="6"/>
+        <v>0.01</v>
+      </c>
+      <c r="N410" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
